--- a/Java/BGTransport/src/main/resources/excel/list/tram_station_list.xlsx
+++ b/Java/BGTransport/src/main/resources/excel/list/tram_station_list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{23874F40-B8A7-476B-9539-5E45B09C5170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7971BBF-8F25-40E7-AEE5-082F3E48781A}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{23874F40-B8A7-476B-9539-5E45B09C5170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA9FE7C4-8590-4C77-8BAB-827E03FD5A67}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>BERGAMO FS</t>
   </si>
@@ -155,13 +155,115 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>45.6960361</t>
+  </si>
+  <si>
+    <t>9.6832942</t>
+  </si>
+  <si>
+    <t>45.7003364</t>
+  </si>
+  <si>
+    <t>9.6917255</t>
+  </si>
+  <si>
+    <t>45.7060552</t>
+  </si>
+  <si>
+    <t>9.6891683</t>
+  </si>
+  <si>
+    <t>45.7099044</t>
+  </si>
+  <si>
+    <t>9.6970347</t>
+  </si>
+  <si>
+    <t>45.710841</t>
+  </si>
+  <si>
+    <t>9.701012</t>
+  </si>
+  <si>
+    <t>45.7225502</t>
+  </si>
+  <si>
+    <t>9.7047931</t>
+  </si>
+  <si>
+    <t>45.721365</t>
+  </si>
+  <si>
+    <t>9.717638</t>
+  </si>
+  <si>
+    <t>45.732206</t>
+  </si>
+  <si>
+    <t>9.722752</t>
+  </si>
+  <si>
+    <t>45.73333</t>
+  </si>
+  <si>
+    <t>9.73333</t>
+  </si>
+  <si>
+    <t>45.7413488</t>
+  </si>
+  <si>
+    <t>9.7529471</t>
+  </si>
+  <si>
+    <t>45.740182</t>
+  </si>
+  <si>
+    <t>9.755005</t>
+  </si>
+  <si>
+    <t>45.7455701</t>
+  </si>
+  <si>
+    <t>9.7703302</t>
+  </si>
+  <si>
+    <t>45.74759</t>
+  </si>
+  <si>
+    <t>9.778382</t>
+  </si>
+  <si>
+    <t>45.783092</t>
+  </si>
+  <si>
+    <t>9.825372</t>
+  </si>
+  <si>
+    <t>45.691384</t>
+  </si>
+  <si>
+    <t>9.676638</t>
+  </si>
+  <si>
+    <t>45.707883</t>
+  </si>
+  <si>
+    <t>9.693156</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,16 +279,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -194,11 +316,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,6 +353,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,9 +704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -553,9 +716,11 @@
     <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -568,8 +733,14 @@
       <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -582,8 +753,14 @@
       <c r="D2" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -596,8 +773,14 @@
       <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -610,8 +793,14 @@
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -624,8 +813,14 @@
       <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -638,8 +833,14 @@
       <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -652,8 +853,14 @@
       <c r="D7" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -666,8 +873,14 @@
       <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -680,8 +893,14 @@
       <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -694,8 +913,14 @@
       <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -708,8 +933,14 @@
       <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -722,8 +953,14 @@
       <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -736,8 +973,14 @@
       <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -750,8 +993,14 @@
       <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -764,8 +1013,14 @@
       <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -778,8 +1033,14 @@
       <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -792,11 +1053,18 @@
       <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="E17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Java/BGTransport/src/main/resources/excel/list/tram_station_list.xlsx
+++ b/Java/BGTransport/src/main/resources/excel/list/tram_station_list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{23874F40-B8A7-476B-9539-5E45B09C5170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA9FE7C4-8590-4C77-8BAB-827E03FD5A67}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{23874F40-B8A7-476B-9539-5E45B09C5170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38749975-0763-4190-9636-008FE1662C47}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,18 +358,19 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -707,7 +708,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,8 +717,8 @@
     <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
